--- a/data/data for tables/study_characteristics_table_all.xlsx
+++ b/data/data for tables/study_characteristics_table_all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c9748fb32d9e42f0/Desktop/Galenos/LS2/Datafor 1st update and 1st iteration/data for analysis. LSR2 1st iteration new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c9748fb32d9e42f0/Desktop/Github rep/LSR2_exercise_H/data/data for tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_4D79FDCE8F79A8D366075C52F3CFE2F2FCD29484" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F89E5F9-EBAF-447F-944F-877936DBA26E}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_4D79FDCE8F79A8D366075C52F3CFE2F2FCD29484" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E76919A8-DEAD-484C-8462-300558032890}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>Study</t>
   </si>
@@ -184,9 +184,6 @@
     <t>Whitworth2019b</t>
   </si>
   <si>
-    <t>Greene2022#</t>
-  </si>
-  <si>
     <t>anaerobic</t>
   </si>
   <si>
@@ -215,6 +212,12 @@
   </si>
   <si>
     <t>therapy alone</t>
+  </si>
+  <si>
+    <t>Greene2022a</t>
+  </si>
+  <si>
+    <t>Greene2022b</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,7 +961,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>2021</v>
@@ -967,10 +970,10 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
         <v>59</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -982,7 +985,7 @@
         <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
         <v>43</v>
@@ -990,7 +993,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B12">
         <v>2022</v>
@@ -1008,13 +1011,13 @@
         <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M12" t="s">
         <v>43</v>
@@ -1022,7 +1025,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B13">
         <v>2022</v>
@@ -1037,13 +1040,13 @@
         <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M13" t="s">
         <v>43</v>
@@ -1051,7 +1054,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14">
         <v>2015</v>
@@ -1060,10 +1063,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
         <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
